--- a/exp11/data/oscillations.xlsx
+++ b/exp11/data/oscillations.xlsx
@@ -5,17 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="218" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="218" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="argon" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Stickstoff" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
   <si>
     <t>(distance of the bottom of the ball from bottom in cm)</t>
   </si>
@@ -30,6 +31,12 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>Stickstoff 1</t>
+  </si>
+  <si>
+    <t>Stickstoff 2</t>
   </si>
 </sst>
 </file>
@@ -366,11 +373,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="86333141"/>
-        <c:axId val="84261474"/>
+        <c:axId val="35372390"/>
+        <c:axId val="39959602"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86333141"/>
+        <c:axId val="35372390"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -378,7 +385,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84261474"/>
+        <c:crossAx val="39959602"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -389,7 +396,7 @@
         </c:spPr>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84261474"/>
+        <c:axId val="39959602"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -406,7 +413,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86333141"/>
+        <c:crossAx val="35372390"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -451,7 +458,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="004586"/>
+              <a:srgbClr val="99ccff"/>
             </a:solidFill>
           </c:spPr>
           <c:marker/>
@@ -618,11 +625,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="28671094"/>
-        <c:axId val="42338189"/>
+        <c:axId val="63694858"/>
+        <c:axId val="94690858"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="28671094"/>
+        <c:axId val="63694858"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -630,8 +637,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42338189"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="94690858"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -641,7 +648,7 @@
         </c:spPr>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42338189"/>
+        <c:axId val="94690858"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -658,8 +665,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="28671094"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="63694858"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -703,7 +710,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ff420e"/>
+              <a:srgbClr val="99ccff"/>
             </a:solidFill>
           </c:spPr>
           <c:marker/>
@@ -759,50 +766,50 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>13.2559728</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.3458456</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.9357184</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5255912</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.615464</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7053368</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7952096</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3850824</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9749552</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.064828</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1547008</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.28092800011359E-005</c:v>
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="37842828"/>
-        <c:axId val="89137642"/>
+        <c:axId val="95714459"/>
+        <c:axId val="4764925"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="37842828"/>
+        <c:axId val="95714459"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -810,8 +817,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89137642"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="4764925"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -821,7 +828,7 @@
         </c:spPr>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89137642"/>
+        <c:axId val="4764925"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -838,7 +845,805 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37842828"/>
+        <c:crossAx val="95714459"/>
+        <c:crossesAt val="0"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:marker/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Stickstoff!$G$6:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.8685714286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7371428572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6057142858</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4742857144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.342857143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2114285716</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0800000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9485714288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Stickstoff!$I$6:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10.4151965714454</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.92739314289084</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.43958971433626</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.95178628578168</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4639828572271</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.47617942867252</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.488376000117938</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.000572571563360214</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="94375546"/>
+        <c:axId val="85062153"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="94375546"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85062153"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="85062153"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94375546"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:marker/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Stickstoff!$B$6:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.4342857143</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8685714286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3028571429</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7371428572</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1714285715</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6057142858</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0400000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4742857144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9085714287</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.342857143</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7771428573</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.2114285716</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.6457142859</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.0800000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.5142857145</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.9485714288</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.3828571431</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Stickstoff!$C$6:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="67764565"/>
+        <c:axId val="87266411"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="67764565"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="87266411"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="87266411"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67764565"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:marker/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Stickstoff!$B$38:$B$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.4342857143</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8685714286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3028571429</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7371428572</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1714285715</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6057142858</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0400000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4742857144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9085714287</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.342857143</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7771428573</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.2114285716</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.6457142859</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.0800000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.5142857145</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.9485714288</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.3828571431</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.8171428574</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.2514285717</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.685714286</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.1200000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.5542857146</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.9885714289</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.4228571432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Stickstoff!$C$38:$C$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="17087240"/>
+        <c:axId val="21686471"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="17087240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="21686471"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="21686471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="17087240"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:marker/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Stickstoff!$G$38:$G$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.8685714286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7371428572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6057142858</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4742857144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.342857143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2114285716</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0800000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9485714288</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.8171428574</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.685714286</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.5542857146</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.4228571432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Stickstoff!$I$38:$I$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>13.7124114285896</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.7648228571792</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3172342857688</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8696457143584</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.922057142948</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4744685715376</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5268800001272</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5792914287168</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1317028573064</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.684114285896</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2365257144856</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.306358857345039</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="75669728"/>
+        <c:axId val="7371754"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="75669728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="7371754"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="7371754"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75669728"/>
         <c:crosses val="autoZero"/>
         <c:spPr>
           <a:ln>
@@ -875,15 +1680,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>310680</xdr:colOff>
+      <xdr:colOff>337680</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>31680</xdr:rowOff>
+      <xdr:rowOff>22680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>380520</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:colOff>407160</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -891,8 +1696,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7625880" y="1909080"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:off x="7652880" y="1900080"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -905,15 +1710,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>277560</xdr:colOff>
+      <xdr:colOff>304560</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:rowOff>39600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>346680</xdr:colOff>
+      <xdr:colOff>373320</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -921,8 +1726,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4341240" y="8114760"/>
-        <a:ext cx="5758920" cy="3240360"/>
+        <a:off x="4368240" y="8105760"/>
+        <a:ext cx="5758560" cy="3240000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -935,15 +1740,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>218520</xdr:colOff>
+      <xdr:colOff>245520</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>287640</xdr:colOff>
+      <xdr:colOff>314280</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -951,12 +1756,137 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8346240" y="6201720"/>
-        <a:ext cx="5758920" cy="3240000"/>
+        <a:off x="8373240" y="6192720"/>
+        <a:ext cx="5758560" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>32400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>102600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>5760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7347600" y="0"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>333360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>403560</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>5760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="13338000" y="0"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>314280</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>52200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>384120</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>57960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="16570080" y="5591160"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>241200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>23400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>311400</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>29160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7556400" y="5562360"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -972,8 +1902,8 @@
   </sheetPr>
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="K46" activeCellId="0" pane="topLeft" sqref="K46"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A25" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="I40" activeCellId="0" pane="topLeft" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2122,4 +3052,1018 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J61"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A30" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="I38" activeCellId="0" pane="topLeft" sqref="I38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+      <c r="C3" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="5">
+      <c r="C5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.8685714286</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>-0.5897</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+      <c r="A6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <f aca="false">A6*($F$5/2)</f>
+        <v>0.4342857143</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">F6*$F$5</f>
+        <v>0.8685714286</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <f aca="false">D7</f>
+        <v>29.5121965714454</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <f aca="false">H6-19.097</f>
+        <v>10.4151965714454</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+      <c r="A7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <f aca="false">A7*($F$5/2)</f>
+        <v>0.8685714286</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <f aca="false">ABS(C7+B7*(-$I$5))</f>
+        <v>29.5121965714454</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">F7*$F$5</f>
+        <v>1.7371428572</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <f aca="false">D9</f>
+        <v>25.0243931428908</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <f aca="false">H7-19.097</f>
+        <v>5.92739314289084</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+      <c r="A8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <f aca="false">A8*($F$5/2)</f>
+        <v>1.3028571429</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">F8*$F$5</f>
+        <v>2.6057142858</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <f aca="false">D11</f>
+        <v>23.5365897143363</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">H8-19.097</f>
+        <v>4.43958971433626</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+      <c r="A9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <f aca="false">A9*($F$5/2)</f>
+        <v>1.7371428572</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <f aca="false">ABS(C9+B9*(-$I$5))</f>
+        <v>25.0243931428908</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">F9*$F$5</f>
+        <v>3.4742857144</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <f aca="false">D13</f>
+        <v>22.0487862857817</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <f aca="false">H9-19.097</f>
+        <v>2.95178628578168</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+      <c r="A10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <f aca="false">A10*($F$5/2)</f>
+        <v>2.1714285715</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <f aca="false">F10*$F$5</f>
+        <v>4.342857143</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <f aca="false">D15</f>
+        <v>20.5609828572271</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <f aca="false">H10-19.097</f>
+        <v>1.4639828572271</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+      <c r="A11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">A11*($F$5/2)</f>
+        <v>2.6057142858</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <f aca="false">ABS(C11+B11*(-$I$5))</f>
+        <v>23.5365897143363</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <f aca="false">F11*$F$5</f>
+        <v>5.2114285716</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <f aca="false">D17</f>
+        <v>20.5731794286725</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <f aca="false">H11-19.097</f>
+        <v>1.47617942867252</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+      <c r="A12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <f aca="false">A12*($F$5/2)</f>
+        <v>3.0400000001</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <f aca="false">F12*$F$5</f>
+        <v>6.0800000002</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <f aca="false">D19</f>
+        <v>19.5853760001179</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <f aca="false">H12-19.097</f>
+        <v>0.488376000117938</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+      <c r="A13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <f aca="false">A13*($F$5/2)</f>
+        <v>3.4742857144</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <f aca="false">ABS(C13+B13*(-$I$5))</f>
+        <v>22.0487862857817</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <f aca="false">F13*$F$5</f>
+        <v>6.9485714288</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <f aca="false">D21</f>
+        <v>19.0975725715634</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <f aca="false">H13-19.097</f>
+        <v>0.000572571563360214</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+      <c r="A14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <f aca="false">A14*($F$5/2)</f>
+        <v>3.9085714287</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+      <c r="A15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <f aca="false">A15*($F$5/2)</f>
+        <v>4.342857143</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <f aca="false">ABS(C15+B15*(-$I$5))</f>
+        <v>20.5609828572271</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+      <c r="A16" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <f aca="false">A16*($F$5/2)</f>
+        <v>4.7771428573</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+      <c r="A17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <f aca="false">A17*($F$5/2)</f>
+        <v>5.2114285716</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <f aca="false">ABS(C17+B17*(-$I$5))</f>
+        <v>20.5731794286725</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+      <c r="A18" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <f aca="false">A18*($F$5/2)</f>
+        <v>5.6457142859</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+      <c r="A19" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <f aca="false">A19*($F$5/2)</f>
+        <v>6.0800000002</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <f aca="false">ABS(C19+B19*(-$I$5))</f>
+        <v>19.5853760001179</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
+      <c r="A20" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <f aca="false">A20*($F$5/2)</f>
+        <v>6.5142857145</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
+      <c r="A21" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <f aca="false">A21*($F$5/2)</f>
+        <v>6.9485714288</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <f aca="false">ABS(C21+B21*(-$I$5))</f>
+        <v>19.0975725715634</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
+      <c r="A22" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <f aca="false">A22*($F$5/2)</f>
+        <v>7.3828571431</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
+      <c r="C35" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="37">
+      <c r="C37" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>0.8685714286</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>-0.636</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
+      <c r="A38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <f aca="false">A38*($F$5/2)</f>
+        <v>0.4342857143</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <f aca="false">ABS(C38+B38*(-$I$37))</f>
+        <v>4.2762057142948</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <f aca="false">F38*$F$5</f>
+        <v>0.8685714286</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <f aca="false">D39</f>
+        <v>32.0524114285896</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <f aca="false">H38-18.34</f>
+        <v>13.7124114285896</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
+      <c r="A39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <f aca="false">A39*($F$5/2)</f>
+        <v>0.8685714286</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <f aca="false">ABS(C39+B39*(-$I$37))</f>
+        <v>32.0524114285896</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <f aca="false">F39*$F$5</f>
+        <v>1.7371428572</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <f aca="false">D41</f>
+        <v>29.1048228571792</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <f aca="false">H39-18.34</f>
+        <v>10.7648228571792</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
+      <c r="A40" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <f aca="false">A40*($F$5/2)</f>
+        <v>1.3028571429</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <f aca="false">ABS(C40+B40*(-$I$37))</f>
+        <v>8.3286171428844</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <f aca="false">F40*$F$5</f>
+        <v>2.6057142858</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <f aca="false">D43</f>
+        <v>26.6572342857688</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <f aca="false">H40-18.34</f>
+        <v>8.3172342857688</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
+      <c r="A41" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <f aca="false">A41*($F$5/2)</f>
+        <v>1.7371428572</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <f aca="false">ABS(C41+B41*(-$I$37))</f>
+        <v>29.1048228571792</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <f aca="false">F41*$F$5</f>
+        <v>3.4742857144</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <f aca="false">D45</f>
+        <v>25.2096457143584</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <f aca="false">H41-18.34</f>
+        <v>6.8696457143584</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
+      <c r="A42" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <f aca="false">A42*($F$5/2)</f>
+        <v>2.1714285715</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <f aca="false">ABS(C42+B42*(-$I$37))</f>
+        <v>10.381028571474</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <f aca="false">F42*$F$5</f>
+        <v>4.342857143</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <f aca="false">D47</f>
+        <v>24.262057142948</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <f aca="false">H42-18.34</f>
+        <v>5.922057142948</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
+      <c r="A43" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <f aca="false">A43*($F$5/2)</f>
+        <v>2.6057142858</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <f aca="false">ABS(C43+B43*(-$I$37))</f>
+        <v>26.6572342857688</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <f aca="false">F43*$F$5</f>
+        <v>5.2114285716</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <f aca="false">D49</f>
+        <v>22.8144685715376</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <f aca="false">H43-18.34</f>
+        <v>4.4744685715376</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
+      <c r="A44" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <f aca="false">A44*($F$5/2)</f>
+        <v>3.0400000001</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <f aca="false">ABS(C44+B44*(-$I$37))</f>
+        <v>11.4334400000636</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <f aca="false">F44*$F$5</f>
+        <v>6.0800000002</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <f aca="false">D51</f>
+        <v>21.8668800001272</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <f aca="false">H44-18.34</f>
+        <v>3.5268800001272</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
+      <c r="A45" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <f aca="false">A45*($F$5/2)</f>
+        <v>3.4742857144</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <f aca="false">ABS(C45+B45*(-$I$37))</f>
+        <v>25.2096457143584</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <f aca="false">F45*$F$5</f>
+        <v>6.9485714288</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <f aca="false">D53</f>
+        <v>20.9192914287168</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <f aca="false">H45-18.34</f>
+        <v>2.5792914287168</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
+      <c r="A46" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <f aca="false">A46*($F$5/2)</f>
+        <v>3.9085714287</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <f aca="false">ABS(C46+B46*(-$I$37))</f>
+        <v>12.4858514286532</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <f aca="false">F46*$F$5</f>
+        <v>7.8171428574</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <f aca="false">D55</f>
+        <v>20.4717028573064</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <f aca="false">H46-18.34</f>
+        <v>2.1317028573064</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
+      <c r="A47" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <f aca="false">A47*($F$5/2)</f>
+        <v>4.342857143</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <f aca="false">ABS(C47+B47*(-$I$37))</f>
+        <v>24.262057142948</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <f aca="false">F47*$F$5</f>
+        <v>8.685714286</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <f aca="false">D57</f>
+        <v>20.024114285896</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <f aca="false">H47-18.34</f>
+        <v>1.684114285896</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
+      <c r="A48" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <f aca="false">A48*($F$5/2)</f>
+        <v>4.7771428573</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <f aca="false">ABS(C48+B48*(-$I$37))</f>
+        <v>13.0382628572428</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <f aca="false">F48*$F$5</f>
+        <v>9.5542857146</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <f aca="false">D59</f>
+        <v>19.5765257144856</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <f aca="false">H48-18.34</f>
+        <v>1.2365257144856</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
+      <c r="A49" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <f aca="false">A49*($F$5/2)</f>
+        <v>5.2114285716</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <f aca="false">ABS(C49+B49*(-$I$37))</f>
+        <v>22.8144685715376</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <f aca="false">F49*$F$5</f>
+        <v>10.4228571432</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <f aca="false">D61</f>
+        <v>18.646358857345</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <f aca="false">H49-18.34</f>
+        <v>0.306358857345039</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
+      <c r="A50" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <f aca="false">A50*($F$5/2)</f>
+        <v>5.6457142859</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <f aca="false">ABS(C50+B50*(-$I$37))</f>
+        <v>14.0906742858324</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
+      <c r="A51" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <f aca="false">A51*($F$5/2)</f>
+        <v>6.0800000002</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <f aca="false">ABS(C51+B51*(-$I$37))</f>
+        <v>21.8668800001272</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
+      <c r="A52" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <f aca="false">A52*($F$5/2)</f>
+        <v>6.5142857145</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <f aca="false">ABS(C52+B52*(-$I$37))</f>
+        <v>14.643085714422</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
+      <c r="A53" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <f aca="false">A53*($F$5/2)</f>
+        <v>6.9485714288</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <f aca="false">ABS(C53+B53*(-$I$37))</f>
+        <v>20.9192914287168</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
+      <c r="A54" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <f aca="false">A54*($F$5/2)</f>
+        <v>7.3828571431</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <f aca="false">ABS(C54+B54*(-$I$37))</f>
+        <v>14.6954971430116</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
+      <c r="A55" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <f aca="false">A55*($F$5/2)</f>
+        <v>7.8171428574</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <f aca="false">ABS(C55+B55*(-$I$37))</f>
+        <v>20.4717028573064</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
+      <c r="A56" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <f aca="false">A56*($F$5/2)</f>
+        <v>8.2514285717</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <f aca="false">ABS(C56+B56*(-$I$37))</f>
+        <v>15.2479085716012</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
+      <c r="A57" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <f aca="false">A57*($F$5/2)</f>
+        <v>8.685714286</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <f aca="false">ABS(C57+B57*(-$I$37))</f>
+        <v>20.024114285896</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
+      <c r="A58" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <f aca="false">A58*($F$5/2)</f>
+        <v>9.1200000003</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <f aca="false">ABS(C58+B58*(-$I$37))</f>
+        <v>15.3003200001908</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
+      <c r="A59" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <f aca="false">A59*($F$5/2)</f>
+        <v>9.5542857146</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <f aca="false">ABS(C59+B59*(-$I$37))</f>
+        <v>19.5765257144856</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
+      <c r="A60" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <f aca="false">A60*($F$5/2)</f>
+        <v>9.9885714289</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <f aca="false">ABS(C60+B60*(-$I$37))</f>
+        <v>15.3527314287804</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
+      <c r="A61" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <f aca="false">A61*($F$5/2)</f>
+        <v>10.4228571432</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <f aca="false">ABS(C61+B61*(-$I$5))</f>
+        <v>18.646358857345</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/exp11/data/oscillations.xlsx
+++ b/exp11/data/oscillations.xlsx
@@ -170,10 +170,10 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF420E"/>
+      <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -366,11 +366,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="86333141"/>
-        <c:axId val="84261474"/>
+        <c:axId val="27595485"/>
+        <c:axId val="35073392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86333141"/>
+        <c:axId val="27595485"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -378,7 +378,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84261474"/>
+        <c:crossAx val="35073392"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -389,7 +389,7 @@
         </c:spPr>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84261474"/>
+        <c:axId val="35073392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -406,7 +406,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86333141"/>
+        <c:crossAx val="27595485"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -451,7 +451,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="004586"/>
+              <a:srgbClr val="99ccff"/>
             </a:solidFill>
           </c:spPr>
           <c:marker/>
@@ -618,11 +618,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="28671094"/>
-        <c:axId val="42338189"/>
+        <c:axId val="64416171"/>
+        <c:axId val="94366507"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="28671094"/>
+        <c:axId val="64416171"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -630,8 +630,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42338189"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="94366507"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -641,7 +641,7 @@
         </c:spPr>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42338189"/>
+        <c:axId val="94366507"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -658,8 +658,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="28671094"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="64416171"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -703,7 +703,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ff420e"/>
+              <a:srgbClr val="99ccff"/>
             </a:solidFill>
           </c:spPr>
           <c:marker/>
@@ -759,50 +759,50 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>13.2559728</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.3458456</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.9357184</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5255912</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.615464</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7053368</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7952096</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3850824</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9749552</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.064828</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1547008</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.28092800011359E-005</c:v>
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="37842828"/>
-        <c:axId val="89137642"/>
+        <c:axId val="58741297"/>
+        <c:axId val="28641123"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="37842828"/>
+        <c:axId val="58741297"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -810,8 +810,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89137642"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="28641123"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -821,7 +821,7 @@
         </c:spPr>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89137642"/>
+        <c:axId val="28641123"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -838,8 +838,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37842828"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="58741297"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -875,15 +875,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>310680</xdr:colOff>
+      <xdr:colOff>337680</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>31680</xdr:rowOff>
+      <xdr:rowOff>22680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>380520</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:colOff>407160</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -891,8 +891,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7625880" y="1909080"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:off x="7652880" y="1900080"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -905,15 +905,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>277560</xdr:colOff>
+      <xdr:colOff>304560</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:rowOff>39600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>346680</xdr:colOff>
+      <xdr:colOff>373320</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -921,8 +921,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4341240" y="8114760"/>
-        <a:ext cx="5758920" cy="3240360"/>
+        <a:off x="4368240" y="8105760"/>
+        <a:ext cx="5758560" cy="3240000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -935,15 +935,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>218520</xdr:colOff>
+      <xdr:colOff>245520</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>287640</xdr:colOff>
+      <xdr:colOff>314280</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -951,8 +951,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8346240" y="6201720"/>
-        <a:ext cx="5758920" cy="3240000"/>
+        <a:off x="8373240" y="6192720"/>
+        <a:ext cx="5758560" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -970,10 +970,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="K46" activeCellId="0" pane="topLeft" sqref="K46"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="E40" activeCellId="0" pane="topLeft" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1547,6 +1547,10 @@
       <c r="J37" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="K37" s="0" t="n">
+        <f aca="false">MIN(H38:H49)</f>
+        <v>19.83391280928</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.8" outlineLevel="0" r="38">
       <c r="A38" s="0" t="n">

--- a/exp11/data/oscillations.xlsx
+++ b/exp11/data/oscillations.xlsx
@@ -5,18 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="218" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="218" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="argon" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Stickstoff" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="co2" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="8">
   <si>
     <t>(distance of the bottom of the ball from bottom in cm)</t>
   </si>
@@ -37,6 +38,9 @@
   </si>
   <si>
     <t>Stickstoff 2</t>
+  </si>
+  <si>
+    <t>Co2</t>
   </si>
 </sst>
 </file>
@@ -180,7 +184,7 @@
       <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -373,11 +377,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="35372390"/>
-        <c:axId val="39959602"/>
+        <c:axId val="32747828"/>
+        <c:axId val="78538858"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="35372390"/>
+        <c:axId val="32747828"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -385,7 +389,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39959602"/>
+        <c:crossAx val="78538858"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -396,7 +400,7 @@
         </c:spPr>
       </c:valAx>
       <c:valAx>
-        <c:axId val="39959602"/>
+        <c:axId val="78538858"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -413,7 +417,439 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35372390"/>
+        <c:crossAx val="32747828"/>
+        <c:crossesAt val="0"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99ccff"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:marker/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>co2!$B$38:$B$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.4457142857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8914285714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3371428571</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7828571428</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2285714285</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6742857142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1199999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5657142856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0114285713</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.457142857</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.9028571427</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3485714284</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.7942857141</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.2399999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>co2!$C$38:$C$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="65456829"/>
+        <c:axId val="286066"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="65456829"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="286066"/>
+        <c:crossesAt val="0"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="286066"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65456829"/>
+        <c:crossesAt val="0"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99ccff"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:marker/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>co2!$G$38:$G$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.8914285714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7828571428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6742857142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5657142856</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.457142857</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3485714284</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2399999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>co2!$I$38:$I$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>15.876342857134</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.652685714268</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.429028571402</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.205371428536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.98171428567</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.758057142803999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0343999999379996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="92503762"/>
+        <c:axId val="35096232"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="92503762"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="35096232"/>
+        <c:crossesAt val="0"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="35096232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92503762"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -625,11 +1061,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="63694858"/>
-        <c:axId val="94690858"/>
+        <c:axId val="69160592"/>
+        <c:axId val="14046881"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63694858"/>
+        <c:axId val="69160592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -637,7 +1073,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94690858"/>
+        <c:crossAx val="14046881"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -648,7 +1084,7 @@
         </c:spPr>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94690858"/>
+        <c:axId val="14046881"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -665,7 +1101,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63694858"/>
+        <c:crossAx val="69160592"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -805,11 +1241,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="95714459"/>
-        <c:axId val="4764925"/>
+        <c:axId val="24204865"/>
+        <c:axId val="13546389"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95714459"/>
+        <c:axId val="24204865"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -817,7 +1253,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4764925"/>
+        <c:crossAx val="13546389"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -828,7 +1264,7 @@
         </c:spPr>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4764925"/>
+        <c:axId val="13546389"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -845,7 +1281,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95714459"/>
+        <c:crossAx val="24204865"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
@@ -890,7 +1326,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ff420e"/>
+              <a:srgbClr val="99ccff"/>
             </a:solidFill>
           </c:spPr>
           <c:marker/>
@@ -934,38 +1370,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10.4151965714454</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.92739314289084</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.43958971433626</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.95178628578168</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4639828572271</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.47617942867252</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.488376000117938</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000572571563360214</c:v>
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="94375546"/>
-        <c:axId val="85062153"/>
+        <c:axId val="885388"/>
+        <c:axId val="7214907"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94375546"/>
+        <c:axId val="885388"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -973,8 +1409,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85062153"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="7214907"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -984,7 +1420,7 @@
         </c:spPr>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85062153"/>
+        <c:axId val="7214907"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1001,8 +1437,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94375546"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="885388"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -1046,7 +1482,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="004586"/>
+              <a:srgbClr val="99ccff"/>
             </a:solidFill>
           </c:spPr>
           <c:marker/>
@@ -1171,11 +1607,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="67764565"/>
-        <c:axId val="87266411"/>
+        <c:axId val="6688376"/>
+        <c:axId val="50578601"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67764565"/>
+        <c:axId val="6688376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1183,8 +1619,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87266411"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="50578601"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -1194,7 +1630,7 @@
         </c:spPr>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87266411"/>
+        <c:axId val="50578601"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1211,8 +1647,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67764565"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="6688376"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -1256,7 +1692,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="004586"/>
+              <a:srgbClr val="99ccff"/>
             </a:solidFill>
           </c:spPr>
           <c:marker/>
@@ -1423,11 +1859,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="17087240"/>
-        <c:axId val="21686471"/>
+        <c:axId val="46148876"/>
+        <c:axId val="37029401"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="17087240"/>
+        <c:axId val="46148876"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1435,8 +1871,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="21686471"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="37029401"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -1446,7 +1882,7 @@
         </c:spPr>
       </c:valAx>
       <c:valAx>
-        <c:axId val="21686471"/>
+        <c:axId val="37029401"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1463,8 +1899,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="17087240"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="46148876"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -1508,7 +1944,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ff420e"/>
+              <a:srgbClr val="99ccff"/>
             </a:solidFill>
           </c:spPr>
           <c:marker/>
@@ -1564,50 +2000,50 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>13.7124114285896</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.7648228571792</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3172342857688</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.8696457143584</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.922057142948</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4744685715376</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5268800001272</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5792914287168</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1317028573064</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.684114285896</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2365257144856</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.306358857345039</c:v>
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="75669728"/>
-        <c:axId val="7371754"/>
+        <c:axId val="57712645"/>
+        <c:axId val="8884498"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75669728"/>
+        <c:axId val="57712645"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1615,8 +2051,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="7371754"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="8884498"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -1626,7 +2062,7 @@
         </c:spPr>
       </c:valAx>
       <c:valAx>
-        <c:axId val="7371754"/>
+        <c:axId val="8884498"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1643,8 +2079,486 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75669728"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="57712645"/>
+        <c:crossesAt val="0"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99ccff"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:marker/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>co2!$G$6:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.8914285714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7828571428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6742857142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5657142856</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.457142857</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3485714284</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2399999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1314285712</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>co2!$I$6:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>13.570514285696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.641028571392</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.711542857088</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.782057142784</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.85257142848</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.423085714176</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.493599999872</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0641142855679995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="54721318"/>
+        <c:axId val="42746987"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="54721318"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42746987"/>
+        <c:crossesAt val="0"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="42746987"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54721318"/>
+        <c:crossesAt val="0"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99ccff"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:marker/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>co2!$B$6:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.4457142857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8914285714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3371428571</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7828571428</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2285714285</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6742857142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1199999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5657142856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0114285713</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.457142857</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.9028571427</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3485714284</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.7942857141</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.2399999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.6857142855</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.1314285712</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.5771428569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>co2!$C$6:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:marker/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>co2!$B$38:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.4457142857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8914285714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3371428571</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7828571428</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2285714285</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6742857142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1199999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5657142856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0114285713</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.457142857</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.9028571427</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3485714284</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.7942857141</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.2399999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>co2!$C$38:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="22129702"/>
+        <c:axId val="34527750"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="22129702"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="34527750"/>
+        <c:crossesAt val="0"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="34527750"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="22129702"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -1680,15 +2594,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>337680</xdr:colOff>
+      <xdr:colOff>364680</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>22680</xdr:rowOff>
+      <xdr:rowOff>13680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>407160</xdr:colOff>
+      <xdr:colOff>433800</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:rowOff>151920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1696,8 +2610,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7652880" y="1900080"/>
-        <a:ext cx="5758920" cy="3238920"/>
+        <a:off x="7679880" y="1891080"/>
+        <a:ext cx="5758560" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1710,15 +2624,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>331560</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>39600</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>373320</xdr:colOff>
+      <xdr:colOff>399960</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>28440</xdr:rowOff>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1726,8 +2640,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4368240" y="8105760"/>
-        <a:ext cx="5758560" cy="3240000"/>
+        <a:off x="4395240" y="8096760"/>
+        <a:ext cx="5758200" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1740,15 +2654,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>245520</xdr:colOff>
+      <xdr:colOff>272520</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>68040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>314280</xdr:colOff>
+      <xdr:colOff>340920</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1756,8 +2670,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8373240" y="6192720"/>
-        <a:ext cx="5758560" cy="3239640"/>
+        <a:off x="8400240" y="6183720"/>
+        <a:ext cx="5758200" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1775,15 +2689,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>32400</xdr:colOff>
+      <xdr:colOff>59400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>102600</xdr:colOff>
+      <xdr:colOff>129240</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1791,8 +2705,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7347600" y="0"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="7374600" y="0"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1805,15 +2719,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>333360</xdr:colOff>
+      <xdr:colOff>360360</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>403560</xdr:colOff>
+      <xdr:colOff>430200</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1821,8 +2735,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13338000" y="0"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="13365000" y="0"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1835,15 +2749,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>314280</xdr:colOff>
+      <xdr:colOff>341280</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>52200</xdr:rowOff>
+      <xdr:rowOff>43200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>384120</xdr:colOff>
+      <xdr:colOff>410760</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:rowOff>48600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1851,8 +2765,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16570080" y="5591160"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="16597080" y="5582160"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1865,15 +2779,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>241200</xdr:colOff>
+      <xdr:colOff>268200</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>23400</xdr:rowOff>
+      <xdr:rowOff>14400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>311400</xdr:colOff>
+      <xdr:colOff>338040</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1881,8 +2795,133 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7556400" y="5562360"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="7583400" y="5553360"/>
+        <a:ext cx="5759280" cy="3239280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>179280</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>248760</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8307000" y="211320"/>
+        <a:ext cx="5759280" cy="3239280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>360360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>430200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>5400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="13365000" y="0"/>
+        <a:ext cx="5759280" cy="3239280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>341280</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>43200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>410760</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>48600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="16597080" y="5582160"/>
+        <a:ext cx="5759280" cy="3239280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>268200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>14400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>338040</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>19800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7583400" y="5553360"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3061,7 +4100,7 @@
   </sheetPr>
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A30" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="B28" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="I38" activeCellId="0" pane="topLeft" sqref="I38"/>
     </sheetView>
   </sheetViews>
@@ -3070,15 +4109,15 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
       <c r="C3" s="0" t="s">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="5">
       <c r="C5" s="0" t="s">
         <v>5</v>
       </c>
@@ -3098,7 +4137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="A6" s="0" t="n">
         <v>1</v>
       </c>
@@ -3125,7 +4164,7 @@
         <v>10.4151965714454</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="0" t="n">
         <v>2</v>
       </c>
@@ -3156,7 +4195,7 @@
         <v>5.92739314289084</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="A8" s="0" t="n">
         <v>3</v>
       </c>
@@ -3183,7 +4222,7 @@
         <v>4.43958971433626</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="A9" s="0" t="n">
         <v>4</v>
       </c>
@@ -3214,7 +4253,7 @@
         <v>2.95178628578168</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="0" t="n">
         <v>5</v>
       </c>
@@ -3241,7 +4280,7 @@
         <v>1.4639828572271</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="0" t="n">
         <v>6</v>
       </c>
@@ -3272,7 +4311,7 @@
         <v>1.47617942867252</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="0" t="n">
         <v>7</v>
       </c>
@@ -3299,7 +4338,7 @@
         <v>0.488376000117938</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="13">
       <c r="A13" s="0" t="n">
         <v>8</v>
       </c>
@@ -3330,7 +4369,7 @@
         <v>0.000572571563360214</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="0" t="n">
         <v>9</v>
       </c>
@@ -3342,7 +4381,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="A15" s="0" t="n">
         <v>10</v>
       </c>
@@ -3358,7 +4397,7 @@
         <v>20.5609828572271</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="16">
       <c r="A16" s="0" t="n">
         <v>11</v>
       </c>
@@ -3370,7 +4409,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="17">
       <c r="A17" s="0" t="n">
         <v>12</v>
       </c>
@@ -3386,7 +4425,7 @@
         <v>20.5731794286725</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="18">
       <c r="A18" s="0" t="n">
         <v>13</v>
       </c>
@@ -3398,7 +4437,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="19">
       <c r="A19" s="0" t="n">
         <v>14</v>
       </c>
@@ -3414,7 +4453,7 @@
         <v>19.5853760001179</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="20">
       <c r="A20" s="0" t="n">
         <v>15</v>
       </c>
@@ -3426,7 +4465,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="21">
       <c r="A21" s="0" t="n">
         <v>16</v>
       </c>
@@ -3442,7 +4481,7 @@
         <v>19.0975725715634</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="22">
       <c r="A22" s="0" t="n">
         <v>17</v>
       </c>
@@ -3454,25 +4493,25 @@
         <v>12.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="23"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="24"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="25"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="26"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="27"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="28"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="29"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="30"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="31"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="32"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="33"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="34"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="35">
       <c r="C35" s="0" t="s">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="37">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="36"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="37">
       <c r="C37" s="0" t="s">
         <v>6</v>
       </c>
@@ -3492,7 +4531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="38">
       <c r="A38" s="0" t="n">
         <v>1</v>
       </c>
@@ -3523,7 +4562,7 @@
         <v>13.7124114285896</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="39">
       <c r="A39" s="0" t="n">
         <v>2</v>
       </c>
@@ -3554,7 +4593,7 @@
         <v>10.7648228571792</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="40">
       <c r="A40" s="0" t="n">
         <v>3</v>
       </c>
@@ -3585,7 +4624,7 @@
         <v>8.3172342857688</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="41">
       <c r="A41" s="0" t="n">
         <v>4</v>
       </c>
@@ -3616,7 +4655,7 @@
         <v>6.8696457143584</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="42">
       <c r="A42" s="0" t="n">
         <v>5</v>
       </c>
@@ -3647,7 +4686,7 @@
         <v>5.922057142948</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="43">
       <c r="A43" s="0" t="n">
         <v>6</v>
       </c>
@@ -3678,7 +4717,7 @@
         <v>4.4744685715376</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="44">
       <c r="A44" s="0" t="n">
         <v>7</v>
       </c>
@@ -3709,7 +4748,7 @@
         <v>3.5268800001272</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="45">
       <c r="A45" s="0" t="n">
         <v>8</v>
       </c>
@@ -3740,7 +4779,7 @@
         <v>2.5792914287168</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="46">
       <c r="A46" s="0" t="n">
         <v>9</v>
       </c>
@@ -3771,7 +4810,7 @@
         <v>2.1317028573064</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="47">
       <c r="A47" s="0" t="n">
         <v>10</v>
       </c>
@@ -3802,7 +4841,7 @@
         <v>1.684114285896</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="48">
       <c r="A48" s="0" t="n">
         <v>11</v>
       </c>
@@ -3833,7 +4872,7 @@
         <v>1.2365257144856</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="49">
       <c r="A49" s="0" t="n">
         <v>12</v>
       </c>
@@ -3864,7 +4903,7 @@
         <v>0.306358857345039</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="50">
       <c r="A50" s="0" t="n">
         <v>13</v>
       </c>
@@ -3880,7 +4919,7 @@
         <v>14.0906742858324</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="51">
       <c r="A51" s="0" t="n">
         <v>14</v>
       </c>
@@ -3896,7 +4935,7 @@
         <v>21.8668800001272</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="52">
       <c r="A52" s="0" t="n">
         <v>15</v>
       </c>
@@ -3912,7 +4951,7 @@
         <v>14.643085714422</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="53">
       <c r="A53" s="0" t="n">
         <v>16</v>
       </c>
@@ -3928,7 +4967,7 @@
         <v>20.9192914287168</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="54">
       <c r="A54" s="0" t="n">
         <v>17</v>
       </c>
@@ -3944,7 +4983,7 @@
         <v>14.6954971430116</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="55">
       <c r="A55" s="0" t="n">
         <v>18</v>
       </c>
@@ -3960,7 +4999,7 @@
         <v>20.4717028573064</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="56">
       <c r="A56" s="0" t="n">
         <v>19</v>
       </c>
@@ -3976,7 +5015,7 @@
         <v>15.2479085716012</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="57">
       <c r="A57" s="0" t="n">
         <v>20</v>
       </c>
@@ -3992,7 +5031,7 @@
         <v>20.024114285896</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="58">
       <c r="A58" s="0" t="n">
         <v>21</v>
       </c>
@@ -4008,7 +5047,7 @@
         <v>15.3003200001908</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="59">
       <c r="A59" s="0" t="n">
         <v>22</v>
       </c>
@@ -4024,7 +5063,7 @@
         <v>19.5765257144856</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="60">
       <c r="A60" s="0" t="n">
         <v>23</v>
       </c>
@@ -4040,7 +5079,7 @@
         <v>15.3527314287804</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="61">
       <c r="A61" s="0" t="n">
         <v>24</v>
       </c>
@@ -4054,6 +5093,945 @@
       <c r="D61" s="0" t="n">
         <f aca="false">ABS(C61+B61*(-$I$5))</f>
         <v>18.646358857345</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J51"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="J1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="U25" activeCellId="0" pane="topLeft" sqref="U25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
+      <c r="C3" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="5">
+      <c r="C5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.8914285714</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6">
+      <c r="A6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <f aca="false">A6*($F$5/2)</f>
+        <v>0.4457142857</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">F6*$F$5</f>
+        <v>0.8914285714</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <f aca="false">D7</f>
+        <v>30.570514285696</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <f aca="false">H6-17</f>
+        <v>13.570514285696</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="7">
+      <c r="A7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <f aca="false">A7*($F$5/2)</f>
+        <v>0.8914285714</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <f aca="false">ABS(C7+B7*(-$I$5))</f>
+        <v>30.570514285696</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">F7*$F$5</f>
+        <v>1.7828571428</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <f aca="false">D9</f>
+        <v>26.641028571392</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <f aca="false">H7-17</f>
+        <v>9.641028571392</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
+      <c r="A8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <f aca="false">A8*($F$5/2)</f>
+        <v>1.3371428571</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">F8*$F$5</f>
+        <v>2.6742857142</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <f aca="false">D11</f>
+        <v>22.711542857088</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">H8-17</f>
+        <v>5.711542857088</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="9">
+      <c r="A9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <f aca="false">A9*($F$5/2)</f>
+        <v>1.7828571428</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <f aca="false">ABS(C9+B9*(-$I$5))</f>
+        <v>26.641028571392</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">F9*$F$5</f>
+        <v>3.5657142856</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <f aca="false">D13</f>
+        <v>20.782057142784</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <f aca="false">H9-17</f>
+        <v>3.782057142784</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
+      <c r="A10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <f aca="false">A10*($F$5/2)</f>
+        <v>2.2285714285</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <f aca="false">F10*$F$5</f>
+        <v>4.457142857</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <f aca="false">D15</f>
+        <v>19.85257142848</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <f aca="false">H10-17</f>
+        <v>2.85257142848</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="11">
+      <c r="A11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">A11*($F$5/2)</f>
+        <v>2.6742857142</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <f aca="false">ABS(C11+B11*(-$I$5))</f>
+        <v>22.711542857088</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <f aca="false">F11*$F$5</f>
+        <v>5.3485714284</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <f aca="false">D17</f>
+        <v>18.423085714176</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <f aca="false">H11-17</f>
+        <v>1.423085714176</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="12">
+      <c r="A12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <f aca="false">A12*($F$5/2)</f>
+        <v>3.1199999999</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <f aca="false">F12*$F$5</f>
+        <v>6.2399999998</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <f aca="false">D19</f>
+        <v>17.493599999872</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <f aca="false">H12-17</f>
+        <v>0.493599999872</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="13">
+      <c r="A13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <f aca="false">A13*($F$5/2)</f>
+        <v>3.5657142856</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <f aca="false">ABS(C13+B13*(-$I$5))</f>
+        <v>20.782057142784</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <f aca="false">F13*$F$5</f>
+        <v>7.1314285712</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <f aca="false">D21</f>
+        <v>17.064114285568</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <f aca="false">H13-17</f>
+        <v>0.0641142855679995</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="14">
+      <c r="A14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <f aca="false">A14*($F$5/2)</f>
+        <v>4.0114285713</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="15">
+      <c r="A15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <f aca="false">A15*($F$5/2)</f>
+        <v>4.457142857</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <f aca="false">ABS(C15+B15*(-$I$5))</f>
+        <v>19.85257142848</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="16">
+      <c r="A16" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <f aca="false">A16*($F$5/2)</f>
+        <v>4.9028571427</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="17">
+      <c r="A17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <f aca="false">A17*($F$5/2)</f>
+        <v>5.3485714284</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <f aca="false">ABS(C17+B17*(-$I$5))</f>
+        <v>18.423085714176</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="18">
+      <c r="A18" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <f aca="false">A18*($F$5/2)</f>
+        <v>5.7942857141</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="19">
+      <c r="A19" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <f aca="false">A19*($F$5/2)</f>
+        <v>6.2399999998</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <f aca="false">ABS(C19+B19*(-$I$5))</f>
+        <v>17.493599999872</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="20">
+      <c r="A20" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <f aca="false">A20*($F$5/2)</f>
+        <v>6.6857142855</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="21">
+      <c r="A21" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <f aca="false">A21*($F$5/2)</f>
+        <v>7.1314285712</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <f aca="false">ABS(C21+B21*(-$I$5))</f>
+        <v>17.064114285568</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="22">
+      <c r="A22" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <f aca="false">A22*($F$5/2)</f>
+        <v>7.5771428569</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="23"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="24"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="25"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="26"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="27"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="28"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="29"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="30"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="31"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="32"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="33"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="34"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="35">
+      <c r="C35" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="36"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="37">
+      <c r="C37" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>0.8914285714</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="38">
+      <c r="A38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <f aca="false">A38*($F$5/2)</f>
+        <v>0.4457142857</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <f aca="false">ABS(C38+B38*(-$I$37))</f>
+        <v>2.138171428567</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <f aca="false">F38*$F$5</f>
+        <v>0.8914285714</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <f aca="false">D39</f>
+        <v>30.776342857134</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <f aca="false">H38-14.9</f>
+        <v>15.876342857134</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="39">
+      <c r="A39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <f aca="false">A39*($F$5/2)</f>
+        <v>0.8914285714</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <f aca="false">ABS(C39+B39*(-$I$37))</f>
+        <v>30.776342857134</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <f aca="false">F39*$F$5</f>
+        <v>1.7828571428</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <f aca="false">D41</f>
+        <v>25.552685714268</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <f aca="false">H39-14.9</f>
+        <v>10.652685714268</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="40">
+      <c r="A40" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <f aca="false">A40*($F$5/2)</f>
+        <v>1.3371428571</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <f aca="false">ABS(C40+B40*(-$I$37))</f>
+        <v>6.414514285701</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <f aca="false">F40*$F$5</f>
+        <v>2.6742857142</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <f aca="false">D43</f>
+        <v>22.329028571402</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <f aca="false">H40-14.9</f>
+        <v>7.429028571402</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="41">
+      <c r="A41" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <f aca="false">A41*($F$5/2)</f>
+        <v>1.7828571428</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <f aca="false">ABS(C41+B41*(-$I$37))</f>
+        <v>25.552685714268</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <f aca="false">F41*$F$5</f>
+        <v>3.5657142856</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <f aca="false">D45</f>
+        <v>19.105371428536</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <f aca="false">H41-14.9</f>
+        <v>4.205371428536</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="42">
+      <c r="A42" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <f aca="false">A42*($F$5/2)</f>
+        <v>2.2285714285</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <f aca="false">ABS(C42+B42*(-$I$37))</f>
+        <v>9.190857142835</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <f aca="false">F42*$F$5</f>
+        <v>4.457142857</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <f aca="false">D47</f>
+        <v>16.88171428567</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <f aca="false">H42-14.9</f>
+        <v>1.98171428567</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="43">
+      <c r="A43" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <f aca="false">A43*($F$5/2)</f>
+        <v>2.6742857142</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <f aca="false">ABS(C43+B43*(-$I$37))</f>
+        <v>22.329028571402</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <f aca="false">F43*$F$5</f>
+        <v>5.3485714284</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <f aca="false">D49</f>
+        <v>15.658057142804</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <f aca="false">H43-14.9</f>
+        <v>0.758057142803999</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="44">
+      <c r="A44" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <f aca="false">A44*($F$5/2)</f>
+        <v>3.1199999999</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <f aca="false">ABS(C44+B44*(-$I$37))</f>
+        <v>11.467199999969</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <f aca="false">F44*$F$5</f>
+        <v>6.2399999998</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <f aca="false">D51</f>
+        <v>14.934399999938</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <f aca="false">H44-14.9</f>
+        <v>0.0343999999379996</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="45">
+      <c r="A45" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <f aca="false">A45*($F$5/2)</f>
+        <v>3.5657142856</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <f aca="false">ABS(C45+B45*(-$I$37))</f>
+        <v>19.105371428536</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="46">
+      <c r="A46" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <f aca="false">A46*($F$5/2)</f>
+        <v>4.0114285713</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <f aca="false">ABS(C46+B46*(-$I$37))</f>
+        <v>12.743542857103</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="47">
+      <c r="A47" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <f aca="false">A47*($F$5/2)</f>
+        <v>4.457142857</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <f aca="false">ABS(C47+B47*(-$I$37))</f>
+        <v>16.88171428567</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="48">
+      <c r="A48" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <f aca="false">A48*($F$5/2)</f>
+        <v>4.9028571427</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <f aca="false">ABS(C48+B48*(-$I$37))</f>
+        <v>14.019885714237</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="49">
+      <c r="A49" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <f aca="false">A49*($F$5/2)</f>
+        <v>5.3485714284</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <f aca="false">ABS(C49+B49*(-$I$37))</f>
+        <v>15.658057142804</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="50">
+      <c r="A50" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <f aca="false">A50*($F$5/2)</f>
+        <v>5.7942857141</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <f aca="false">ABS(C50+B50*(-$I$37))</f>
+        <v>13.796228571371</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="51">
+      <c r="A51" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <f aca="false">A51*($F$5/2)</f>
+        <v>6.2399999998</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <f aca="false">ABS(C51+B51*(-$I$37))</f>
+        <v>14.934399999938</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="52">
+      <c r="A51" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <f aca="false">A51*($F$5/2)</f>
+        <v>6.2399999998</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <f aca="false">ABS(C51+B51*(-$I$37))</f>
+        <v>14.934399999938</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="53">
+      <c r="A51" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <f aca="false">A51*($F$5/2)</f>
+        <v>6.2399999998</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <f aca="false">ABS(C51+B51*(-$I$37))</f>
+        <v>14.934399999938</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="54">
+      <c r="A51" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <f aca="false">A51*($F$5/2)</f>
+        <v>6.2399999998</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <f aca="false">ABS(C51+B51*(-$I$37))</f>
+        <v>14.934399999938</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="55">
+      <c r="A51" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <f aca="false">A51*($F$5/2)</f>
+        <v>6.2399999998</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <f aca="false">ABS(C51+B51*(-$I$37))</f>
+        <v>14.934399999938</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="56">
+      <c r="A51" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <f aca="false">A51*($F$5/2)</f>
+        <v>6.2399999998</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <f aca="false">ABS(C51+B51*(-$I$37))</f>
+        <v>14.934399999938</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="57">
+      <c r="A51" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <f aca="false">A51*($F$5/2)</f>
+        <v>6.2399999998</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <f aca="false">ABS(C51+B51*(-$I$37))</f>
+        <v>14.934399999938</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="58">
+      <c r="A51" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <f aca="false">A51*($F$5/2)</f>
+        <v>6.2399999998</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <f aca="false">ABS(C51+B51*(-$I$37))</f>
+        <v>14.934399999938</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="59">
+      <c r="A51" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <f aca="false">A51*($F$5/2)</f>
+        <v>6.2399999998</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <f aca="false">ABS(C51+B51*(-$I$37))</f>
+        <v>14.934399999938</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="60">
+      <c r="A51" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <f aca="false">A51*($F$5/2)</f>
+        <v>6.2399999998</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <f aca="false">ABS(C51+B51*(-$I$37))</f>
+        <v>14.934399999938</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="61">
+      <c r="A51" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <f aca="false">A51*($F$5/2)</f>
+        <v>6.2399999998</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <f aca="false">ABS(C51+B51*(-$I$37))</f>
+        <v>14.934399999938</v>
       </c>
     </row>
   </sheetData>
